--- a/PayPal2025.xlsx
+++ b/PayPal2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\Art\art-sauce finance\art-sauce 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C12E94-2F4B-45F8-861A-FBA1F5B9B3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B913C-D4B3-4C52-B87C-1E2DFAB1DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0DB5FDDC-0325-4E05-B1D9-AB989EB5013C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0DB5FDDC-0325-4E05-B1D9-AB989EB5013C}"/>
   </bookViews>
   <sheets>
     <sheet name="PayPal" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="274">
   <si>
     <t>Date</t>
   </si>
@@ -723,6 +723,141 @@
   </si>
   <si>
     <t>56J03192GC342874T</t>
+  </si>
+  <si>
+    <t>8YT570469W6172044</t>
+  </si>
+  <si>
+    <t>9B402714UV8413808</t>
+  </si>
+  <si>
+    <t>7V6269581A453522X</t>
+  </si>
+  <si>
+    <t>11030088B0475864C</t>
+  </si>
+  <si>
+    <t>0F542997U4562152D</t>
+  </si>
+  <si>
+    <t>5TU85670M7017461K</t>
+  </si>
+  <si>
+    <t>4KV6518710137024F</t>
+  </si>
+  <si>
+    <t>0HM75253U9362522G</t>
+  </si>
+  <si>
+    <t>5UD452252B968050C</t>
+  </si>
+  <si>
+    <t>9KC45456BM1669326</t>
+  </si>
+  <si>
+    <t>1CH57218YH606050R</t>
+  </si>
+  <si>
+    <t>33U456144J3222228</t>
+  </si>
+  <si>
+    <t>2NX99778PJ105191T</t>
+  </si>
+  <si>
+    <t>0A624277J5023482H</t>
+  </si>
+  <si>
+    <t>5DW246546P658134V</t>
+  </si>
+  <si>
+    <t>0TW565750V8342010</t>
+  </si>
+  <si>
+    <t>689740595W4147023</t>
+  </si>
+  <si>
+    <t>0SP94348U61775923</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>2PD53164F8179804Y</t>
+  </si>
+  <si>
+    <t>62V30377K8634743J</t>
+  </si>
+  <si>
+    <t>3MK28329XT7412457</t>
+  </si>
+  <si>
+    <t>9EK49756KM624025M</t>
+  </si>
+  <si>
+    <t>9K068695WG342674P</t>
+  </si>
+  <si>
+    <t>3H798825FD105364C</t>
+  </si>
+  <si>
+    <t>38N89871VY342323D</t>
+  </si>
+  <si>
+    <t>6BM93803DV938850C</t>
+  </si>
+  <si>
+    <t>3KT2616850034891N</t>
+  </si>
+  <si>
+    <t>3Y773404ME434933T</t>
+  </si>
+  <si>
+    <t>3PY137538T499403E</t>
+  </si>
+  <si>
+    <t>5X0986401V725262F</t>
+  </si>
+  <si>
+    <t>8R371112CR543480F</t>
+  </si>
+  <si>
+    <t>5C250689GX725330T</t>
+  </si>
+  <si>
+    <t>4SW407971M7892541</t>
+  </si>
+  <si>
+    <t>8DA63189PB0176726</t>
+  </si>
+  <si>
+    <t>9B5740963U391462J</t>
+  </si>
+  <si>
+    <t>3YF71159GN4355418</t>
+  </si>
+  <si>
+    <t>79K698223T236725M</t>
+  </si>
+  <si>
+    <t>21Y322622D8485940</t>
+  </si>
+  <si>
+    <t>8CE58770WW087541T</t>
+  </si>
+  <si>
+    <t>95V34387A35711106</t>
+  </si>
+  <si>
+    <t>5J136593N8714261N</t>
+  </si>
+  <si>
+    <t>76V55961G6650871D</t>
+  </si>
+  <si>
+    <t>74N79970DH093332K</t>
+  </si>
+  <si>
+    <t>3EJ71928JF252451G</t>
   </si>
 </sst>
 </file>
@@ -1097,18 +1232,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D2D4E6-2F47-4D53-81DD-3D9093D5F52A}">
-  <dimension ref="A1:AO56"/>
+  <dimension ref="A1:AO100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1369,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>45658</v>
       </c>
@@ -1274,7 +1410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>45662</v>
       </c>
@@ -1345,7 +1481,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>45662</v>
       </c>
@@ -1416,7 +1552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>45665</v>
       </c>
@@ -1487,7 +1623,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>45666</v>
       </c>
@@ -1558,7 +1694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>45666</v>
       </c>
@@ -1629,7 +1765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>45666</v>
       </c>
@@ -1700,7 +1836,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>45669</v>
       </c>
@@ -1771,7 +1907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>45670</v>
       </c>
@@ -1842,7 +1978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>45670</v>
       </c>
@@ -1913,7 +2049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>45671</v>
       </c>
@@ -1984,7 +2120,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>45673</v>
       </c>
@@ -2055,7 +2191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>45673</v>
       </c>
@@ -2126,7 +2262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>45674</v>
       </c>
@@ -2224,7 +2360,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>45675</v>
       </c>
@@ -2295,7 +2431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>45675</v>
       </c>
@@ -2366,7 +2502,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>45677</v>
       </c>
@@ -2437,7 +2573,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>45677</v>
       </c>
@@ -2535,7 +2671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>45682</v>
       </c>
@@ -2606,7 +2742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>45682</v>
       </c>
@@ -2677,7 +2813,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>45682</v>
       </c>
@@ -2748,7 +2884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>45685</v>
       </c>
@@ -2849,7 +2985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>45685</v>
       </c>
@@ -2950,7 +3086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>45685</v>
       </c>
@@ -3024,7 +3160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>45687</v>
       </c>
@@ -3098,7 +3234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>45687</v>
       </c>
@@ -3196,7 +3332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>45689</v>
       </c>
@@ -3237,7 +3373,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>45692</v>
       </c>
@@ -3308,7 +3444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>45693</v>
       </c>
@@ -3379,7 +3515,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>45693</v>
       </c>
@@ -3450,7 +3586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>45696</v>
       </c>
@@ -3521,7 +3657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>45696</v>
       </c>
@@ -3589,7 +3725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>45696</v>
       </c>
@@ -3648,7 +3784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>45697</v>
       </c>
@@ -3719,7 +3855,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>45697</v>
       </c>
@@ -3790,7 +3926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>45697</v>
       </c>
@@ -3861,7 +3997,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>45697</v>
       </c>
@@ -3932,7 +4068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>45698</v>
       </c>
@@ -4015,7 +4151,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>45700</v>
       </c>
@@ -4086,7 +4222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>45701</v>
       </c>
@@ -4157,7 +4293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>45701</v>
       </c>
@@ -4228,7 +4364,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>45701</v>
       </c>
@@ -4302,7 +4438,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>45702</v>
       </c>
@@ -4373,7 +4509,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45704</v>
       </c>
@@ -4444,7 +4580,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>45704</v>
       </c>
@@ -4515,7 +4651,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45706</v>
       </c>
@@ -4589,7 +4725,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>45706</v>
       </c>
@@ -4660,7 +4796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>45706</v>
       </c>
@@ -4731,7 +4867,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>45706</v>
       </c>
@@ -4748,7 +4884,7 @@
         <v>200</v>
       </c>
       <c r="F50" t="s">
-        <v>191</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s">
         <v>44</v>
@@ -4814,7 +4950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>45706</v>
       </c>
@@ -4885,7 +5021,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>45708</v>
       </c>
@@ -4956,7 +5092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>45711</v>
       </c>
@@ -5024,7 +5160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>45711</v>
       </c>
@@ -5083,7 +5219,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>45713</v>
       </c>
@@ -5154,7 +5290,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>45713</v>
       </c>
@@ -5222,6 +5358,3040 @@
         <v>53</v>
       </c>
       <c r="AO56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:41" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4.5335648148148146E-2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57">
+        <v>-11.67</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>-11.67</v>
+      </c>
+      <c r="K57" t="s">
+        <v>45</v>
+      </c>
+      <c r="M57" t="s">
+        <v>229</v>
+      </c>
+      <c r="AD57">
+        <v>50</v>
+      </c>
+      <c r="AO57" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B58" s="2">
+        <v>0.43016203703703704</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+      <c r="I58">
+        <v>-0.54</v>
+      </c>
+      <c r="J58">
+        <v>4.46</v>
+      </c>
+      <c r="K58" t="s">
+        <v>178</v>
+      </c>
+      <c r="L58" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" t="s">
+        <v>230</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB58">
+        <v>1</v>
+      </c>
+      <c r="AD58">
+        <v>54.46</v>
+      </c>
+      <c r="AK58">
+        <v>8596195685</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B59" s="2">
+        <v>0.41858796296296297</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+      <c r="I59">
+        <v>-0.45</v>
+      </c>
+      <c r="J59">
+        <v>4.55</v>
+      </c>
+      <c r="K59" t="s">
+        <v>57</v>
+      </c>
+      <c r="L59" t="s">
+        <v>45</v>
+      </c>
+      <c r="M59" t="s">
+        <v>231</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="s">
+        <v>53</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB59">
+        <v>1</v>
+      </c>
+      <c r="AD59">
+        <v>59.01</v>
+      </c>
+      <c r="AK59">
+        <v>7860200205</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B60" s="2">
+        <v>0.47894675925925928</v>
+      </c>
+      <c r="C60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+      <c r="I60">
+        <v>-0.45</v>
+      </c>
+      <c r="J60">
+        <v>4.55</v>
+      </c>
+      <c r="K60" t="s">
+        <v>50</v>
+      </c>
+      <c r="L60" t="s">
+        <v>45</v>
+      </c>
+      <c r="M60" t="s">
+        <v>232</v>
+      </c>
+      <c r="O60" t="s">
+        <v>52</v>
+      </c>
+      <c r="P60" t="s">
+        <v>53</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB60">
+        <v>1</v>
+      </c>
+      <c r="AD60">
+        <v>63.56</v>
+      </c>
+      <c r="AK60">
+        <v>7941867088</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B61" s="2">
+        <v>0.46271990740740743</v>
+      </c>
+      <c r="C61" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>-0.39</v>
+      </c>
+      <c r="J61">
+        <v>2.61</v>
+      </c>
+      <c r="K61" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" t="s">
+        <v>45</v>
+      </c>
+      <c r="M61" t="s">
+        <v>233</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="s">
+        <v>63</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB61">
+        <v>1</v>
+      </c>
+      <c r="AD61">
+        <v>66.17</v>
+      </c>
+      <c r="AK61">
+        <v>7305779062</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B62" s="2">
+        <v>0.41837962962962966</v>
+      </c>
+      <c r="C62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>-0.45</v>
+      </c>
+      <c r="J62">
+        <v>4.55</v>
+      </c>
+      <c r="K62" t="s">
+        <v>70</v>
+      </c>
+      <c r="L62" t="s">
+        <v>45</v>
+      </c>
+      <c r="M62" t="s">
+        <v>234</v>
+      </c>
+      <c r="O62" t="s">
+        <v>52</v>
+      </c>
+      <c r="P62" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB62">
+        <v>1</v>
+      </c>
+      <c r="AD62">
+        <v>70.72</v>
+      </c>
+      <c r="AK62">
+        <v>7552258460</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B63" s="2">
+        <v>0.43344907407407407</v>
+      </c>
+      <c r="C63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s">
+        <v>44</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>-0.39</v>
+      </c>
+      <c r="J63">
+        <v>2.61</v>
+      </c>
+      <c r="K63" t="s">
+        <v>197</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M63" t="s">
+        <v>235</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="s">
+        <v>63</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB63">
+        <v>1</v>
+      </c>
+      <c r="AD63">
+        <v>73.33</v>
+      </c>
+      <c r="AK63">
+        <v>7720716258</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B64" s="2">
+        <v>0.44800925925925927</v>
+      </c>
+      <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>65</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s">
+        <v>44</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>-0.45</v>
+      </c>
+      <c r="J64">
+        <v>4.55</v>
+      </c>
+      <c r="K64" t="s">
+        <v>66</v>
+      </c>
+      <c r="L64" t="s">
+        <v>45</v>
+      </c>
+      <c r="M64" t="s">
+        <v>236</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s">
+        <v>53</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AD64">
+        <v>77.88</v>
+      </c>
+      <c r="AK64">
+        <v>7785953727</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B65" s="2">
+        <v>0.4725462962962963</v>
+      </c>
+      <c r="C65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" t="s">
+        <v>73</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>-0.45</v>
+      </c>
+      <c r="J65">
+        <v>4.55</v>
+      </c>
+      <c r="K65" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" t="s">
+        <v>237</v>
+      </c>
+      <c r="O65" t="s">
+        <v>52</v>
+      </c>
+      <c r="P65" t="s">
+        <v>76</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <v>82.43</v>
+      </c>
+      <c r="AK65">
+        <v>7772406468</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B66" s="2">
+        <v>0.46612268518518518</v>
+      </c>
+      <c r="C66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+      <c r="I66">
+        <v>-0.45</v>
+      </c>
+      <c r="J66">
+        <v>4.55</v>
+      </c>
+      <c r="K66" t="s">
+        <v>79</v>
+      </c>
+      <c r="L66" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" t="s">
+        <v>238</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="s">
+        <v>53</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB66">
+        <v>1</v>
+      </c>
+      <c r="AD66">
+        <v>86.98</v>
+      </c>
+      <c r="AK66">
+        <v>7813163674</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B67" s="2">
+        <v>0.41711805555555553</v>
+      </c>
+      <c r="C67" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+      <c r="I67">
+        <v>-0.45</v>
+      </c>
+      <c r="J67">
+        <v>4.55</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" t="s">
+        <v>239</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="s">
+        <v>53</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB67">
+        <v>1</v>
+      </c>
+      <c r="AD67">
+        <v>91.53</v>
+      </c>
+      <c r="AK67">
+        <v>7947376080</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO67" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.43497685185185186</v>
+      </c>
+      <c r="C68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+      <c r="I68">
+        <v>-0.45</v>
+      </c>
+      <c r="J68">
+        <v>4.55</v>
+      </c>
+      <c r="K68" t="s">
+        <v>99</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>240</v>
+      </c>
+      <c r="O68" t="s">
+        <v>52</v>
+      </c>
+      <c r="P68" t="s">
+        <v>53</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB68">
+        <v>1</v>
+      </c>
+      <c r="AD68">
+        <v>96.08</v>
+      </c>
+      <c r="AK68">
+        <v>7787992050</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B69" s="2">
+        <v>0.45057870370370373</v>
+      </c>
+      <c r="C69" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" t="s">
+        <v>44</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>-0.45</v>
+      </c>
+      <c r="J69">
+        <v>4.55</v>
+      </c>
+      <c r="K69" t="s">
+        <v>95</v>
+      </c>
+      <c r="L69" t="s">
+        <v>45</v>
+      </c>
+      <c r="M69" t="s">
+        <v>241</v>
+      </c>
+      <c r="O69" t="s">
+        <v>52</v>
+      </c>
+      <c r="P69" t="s">
+        <v>53</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB69">
+        <v>1</v>
+      </c>
+      <c r="AD69">
+        <v>100.63</v>
+      </c>
+      <c r="AK69">
+        <v>7889255488</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B70" s="2">
+        <v>0.42378472222222224</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>120</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s">
+        <v>44</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+      <c r="I70">
+        <v>-0.45</v>
+      </c>
+      <c r="J70">
+        <v>4.55</v>
+      </c>
+      <c r="K70" t="s">
+        <v>121</v>
+      </c>
+      <c r="L70" t="s">
+        <v>45</v>
+      </c>
+      <c r="M70" t="s">
+        <v>242</v>
+      </c>
+      <c r="O70" t="s">
+        <v>52</v>
+      </c>
+      <c r="P70" t="s">
+        <v>53</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB70">
+        <v>1</v>
+      </c>
+      <c r="AD70">
+        <v>105.18</v>
+      </c>
+      <c r="AK70">
+        <v>7932507659</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO70" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B71" s="2">
+        <v>0.44366898148148148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71">
+        <v>-0.45</v>
+      </c>
+      <c r="J71">
+        <v>4.55</v>
+      </c>
+      <c r="K71" t="s">
+        <v>117</v>
+      </c>
+      <c r="L71" t="s">
+        <v>45</v>
+      </c>
+      <c r="M71" t="s">
+        <v>243</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="s">
+        <v>53</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AD71">
+        <v>109.73</v>
+      </c>
+      <c r="AK71">
+        <v>7790006740</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B72" s="2">
+        <v>0.47629629629629627</v>
+      </c>
+      <c r="C72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <v>-0.45</v>
+      </c>
+      <c r="J72">
+        <v>4.55</v>
+      </c>
+      <c r="K72" t="s">
+        <v>125</v>
+      </c>
+      <c r="L72" t="s">
+        <v>45</v>
+      </c>
+      <c r="M72" t="s">
+        <v>244</v>
+      </c>
+      <c r="O72" t="s">
+        <v>52</v>
+      </c>
+      <c r="P72" t="s">
+        <v>53</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB72">
+        <v>1</v>
+      </c>
+      <c r="AD72">
+        <v>114.28</v>
+      </c>
+      <c r="AK72">
+        <v>7811847868</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="73" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B73" s="2">
+        <v>0.42030092592592594</v>
+      </c>
+      <c r="C73" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <v>-0.45</v>
+      </c>
+      <c r="J73">
+        <v>4.55</v>
+      </c>
+      <c r="K73" t="s">
+        <v>145</v>
+      </c>
+      <c r="L73" t="s">
+        <v>45</v>
+      </c>
+      <c r="M73" t="s">
+        <v>245</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="s">
+        <v>53</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB73">
+        <v>1</v>
+      </c>
+      <c r="AD73">
+        <v>118.83</v>
+      </c>
+      <c r="AK73">
+        <v>7595090381</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO73" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.47361111111111109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" t="s">
+        <v>44</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <v>-0.45</v>
+      </c>
+      <c r="J74">
+        <v>4.55</v>
+      </c>
+      <c r="K74" t="s">
+        <v>137</v>
+      </c>
+      <c r="L74" t="s">
+        <v>45</v>
+      </c>
+      <c r="M74" t="s">
+        <v>246</v>
+      </c>
+      <c r="O74" t="s">
+        <v>52</v>
+      </c>
+      <c r="P74" t="s">
+        <v>53</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB74">
+        <v>1</v>
+      </c>
+      <c r="AD74">
+        <v>123.38</v>
+      </c>
+      <c r="AK74">
+        <v>7882681975</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4.628472222222222E-2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" t="s">
+        <v>44</v>
+      </c>
+      <c r="H75">
+        <v>-73.38</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-73.38</v>
+      </c>
+      <c r="K75" t="s">
+        <v>45</v>
+      </c>
+      <c r="M75" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD75">
+        <v>50</v>
+      </c>
+      <c r="AO75" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.47555555555555556</v>
+      </c>
+      <c r="C76" t="s">
+        <v>247</v>
+      </c>
+      <c r="D76" t="s">
+        <v>177</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H76">
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <v>-0.54</v>
+      </c>
+      <c r="J76">
+        <v>4.46</v>
+      </c>
+      <c r="K76" t="s">
+        <v>178</v>
+      </c>
+      <c r="L76" t="s">
+        <v>45</v>
+      </c>
+      <c r="M76" t="s">
+        <v>249</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="s">
+        <v>53</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AD76">
+        <v>54.46</v>
+      </c>
+      <c r="AK76">
+        <v>8596195685</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO76" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.5085763888888889</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" t="s">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77">
+        <v>5</v>
+      </c>
+      <c r="I77">
+        <v>-0.45</v>
+      </c>
+      <c r="J77">
+        <v>4.55</v>
+      </c>
+      <c r="K77" t="s">
+        <v>50</v>
+      </c>
+      <c r="L77" t="s">
+        <v>45</v>
+      </c>
+      <c r="M77" t="s">
+        <v>250</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="s">
+        <v>53</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AD77">
+        <v>59.01</v>
+      </c>
+      <c r="AK77">
+        <v>7941867088</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.52287037037037032</v>
+      </c>
+      <c r="C78" t="s">
+        <v>247</v>
+      </c>
+      <c r="D78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78">
+        <v>5</v>
+      </c>
+      <c r="I78">
+        <v>-0.45</v>
+      </c>
+      <c r="J78">
+        <v>4.55</v>
+      </c>
+      <c r="K78" t="s">
+        <v>57</v>
+      </c>
+      <c r="L78" t="s">
+        <v>45</v>
+      </c>
+      <c r="M78" t="s">
+        <v>251</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="s">
+        <v>53</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AD78">
+        <v>63.56</v>
+      </c>
+      <c r="AK78">
+        <v>7860200205</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.51922453703703708</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>-0.39</v>
+      </c>
+      <c r="J79">
+        <v>2.61</v>
+      </c>
+      <c r="K79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L79" t="s">
+        <v>45</v>
+      </c>
+      <c r="M79" t="s">
+        <v>252</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="s">
+        <v>63</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AD79">
+        <v>66.17</v>
+      </c>
+      <c r="AK79">
+        <v>7305779062</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.46049768518518519</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s">
+        <v>44</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <v>-0.45</v>
+      </c>
+      <c r="J80">
+        <v>4.55</v>
+      </c>
+      <c r="K80" t="s">
+        <v>66</v>
+      </c>
+      <c r="L80" t="s">
+        <v>45</v>
+      </c>
+      <c r="M80" t="s">
+        <v>253</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="s">
+        <v>53</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>70.72</v>
+      </c>
+      <c r="AK80">
+        <v>7785953727</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO80" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.48077546296296297</v>
+      </c>
+      <c r="C81" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
+        <v>-0.39</v>
+      </c>
+      <c r="J81">
+        <v>2.61</v>
+      </c>
+      <c r="K81" t="s">
+        <v>197</v>
+      </c>
+      <c r="L81" t="s">
+        <v>45</v>
+      </c>
+      <c r="M81" t="s">
+        <v>254</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="s">
+        <v>63</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AD81">
+        <v>73.33</v>
+      </c>
+      <c r="AK81">
+        <v>7720716258</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO81" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.50092592592592589</v>
+      </c>
+      <c r="C82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82">
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <v>-0.45</v>
+      </c>
+      <c r="J82">
+        <v>4.55</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" t="s">
+        <v>45</v>
+      </c>
+      <c r="M82" t="s">
+        <v>255</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="s">
+        <v>76</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB82">
+        <v>1</v>
+      </c>
+      <c r="AD82">
+        <v>77.88</v>
+      </c>
+      <c r="AK82">
+        <v>7772406468</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.51288194444444446</v>
+      </c>
+      <c r="C83" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83">
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <v>-0.45</v>
+      </c>
+      <c r="J83">
+        <v>4.55</v>
+      </c>
+      <c r="K83" t="s">
+        <v>70</v>
+      </c>
+      <c r="L83" t="s">
+        <v>45</v>
+      </c>
+      <c r="M83" t="s">
+        <v>256</v>
+      </c>
+      <c r="O83" t="s">
+        <v>52</v>
+      </c>
+      <c r="P83" t="s">
+        <v>53</v>
+      </c>
+      <c r="R83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AD83">
+        <v>82.43</v>
+      </c>
+      <c r="AK83">
+        <v>7552258460</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B84" s="2">
+        <v>0.50807870370370367</v>
+      </c>
+      <c r="C84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84">
+        <v>5</v>
+      </c>
+      <c r="I84">
+        <v>-0.45</v>
+      </c>
+      <c r="J84">
+        <v>4.55</v>
+      </c>
+      <c r="K84" t="s">
+        <v>79</v>
+      </c>
+      <c r="L84" t="s">
+        <v>45</v>
+      </c>
+      <c r="M84" t="s">
+        <v>257</v>
+      </c>
+      <c r="O84" t="s">
+        <v>52</v>
+      </c>
+      <c r="P84" t="s">
+        <v>53</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB84">
+        <v>1</v>
+      </c>
+      <c r="AD84">
+        <v>86.98</v>
+      </c>
+      <c r="AK84">
+        <v>7813163674</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B85" s="2">
+        <v>0.5204050925925926</v>
+      </c>
+      <c r="C85" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" t="s">
+        <v>44</v>
+      </c>
+      <c r="H85">
+        <v>5</v>
+      </c>
+      <c r="I85">
+        <v>-0.45</v>
+      </c>
+      <c r="J85">
+        <v>4.55</v>
+      </c>
+      <c r="K85" t="s">
+        <v>91</v>
+      </c>
+      <c r="L85" t="s">
+        <v>45</v>
+      </c>
+      <c r="M85" t="s">
+        <v>258</v>
+      </c>
+      <c r="O85" t="s">
+        <v>52</v>
+      </c>
+      <c r="P85" t="s">
+        <v>53</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB85">
+        <v>1</v>
+      </c>
+      <c r="AD85">
+        <v>91.53</v>
+      </c>
+      <c r="AK85">
+        <v>7947376080</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO85" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0.50775462962962958</v>
+      </c>
+      <c r="C86" t="s">
+        <v>247</v>
+      </c>
+      <c r="D86" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" t="s">
+        <v>44</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>-0.45</v>
+      </c>
+      <c r="J86">
+        <v>4.55</v>
+      </c>
+      <c r="K86" t="s">
+        <v>95</v>
+      </c>
+      <c r="L86" t="s">
+        <v>45</v>
+      </c>
+      <c r="M86" t="s">
+        <v>259</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="s">
+        <v>53</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AD86">
+        <v>96.08</v>
+      </c>
+      <c r="AK86">
+        <v>7889255488</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO86" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B87" s="2">
+        <v>0.52290509259259255</v>
+      </c>
+      <c r="C87" t="s">
+        <v>247</v>
+      </c>
+      <c r="D87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+      <c r="F87" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H87">
+        <v>5</v>
+      </c>
+      <c r="I87">
+        <v>-0.45</v>
+      </c>
+      <c r="J87">
+        <v>4.55</v>
+      </c>
+      <c r="K87" t="s">
+        <v>99</v>
+      </c>
+      <c r="L87" t="s">
+        <v>45</v>
+      </c>
+      <c r="M87" t="s">
+        <v>260</v>
+      </c>
+      <c r="O87" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" t="s">
+        <v>53</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+      <c r="T87">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB87">
+        <v>1</v>
+      </c>
+      <c r="AD87">
+        <v>100.63</v>
+      </c>
+      <c r="AK87">
+        <v>7787992050</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B88" s="2">
+        <v>0.50821759259259258</v>
+      </c>
+      <c r="C88" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F88" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" t="s">
+        <v>44</v>
+      </c>
+      <c r="H88">
+        <v>5</v>
+      </c>
+      <c r="I88">
+        <v>-0.45</v>
+      </c>
+      <c r="J88">
+        <v>4.55</v>
+      </c>
+      <c r="K88" t="s">
+        <v>121</v>
+      </c>
+      <c r="L88" t="s">
+        <v>45</v>
+      </c>
+      <c r="M88" t="s">
+        <v>261</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="s">
+        <v>53</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="T88">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB88">
+        <v>1</v>
+      </c>
+      <c r="AD88">
+        <v>105.18</v>
+      </c>
+      <c r="AK88">
+        <v>7932507659</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO88" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B89" s="2">
+        <v>0.47532407407407407</v>
+      </c>
+      <c r="C89" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" t="s">
+        <v>44</v>
+      </c>
+      <c r="H89">
+        <v>5</v>
+      </c>
+      <c r="I89">
+        <v>-0.45</v>
+      </c>
+      <c r="J89">
+        <v>4.55</v>
+      </c>
+      <c r="K89" t="s">
+        <v>125</v>
+      </c>
+      <c r="L89" t="s">
+        <v>45</v>
+      </c>
+      <c r="M89" t="s">
+        <v>262</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="s">
+        <v>53</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+      <c r="T89">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AD89">
+        <v>109.73</v>
+      </c>
+      <c r="AK89">
+        <v>7811847868</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="90" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B90" s="2">
+        <v>0.46880787037037036</v>
+      </c>
+      <c r="C90" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" t="s">
+        <v>144</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" t="s">
+        <v>44</v>
+      </c>
+      <c r="H90">
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <v>-0.45</v>
+      </c>
+      <c r="J90">
+        <v>4.55</v>
+      </c>
+      <c r="K90" t="s">
+        <v>145</v>
+      </c>
+      <c r="L90" t="s">
+        <v>45</v>
+      </c>
+      <c r="M90" t="s">
+        <v>263</v>
+      </c>
+      <c r="O90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P90" t="s">
+        <v>53</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="T90">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB90">
+        <v>1</v>
+      </c>
+      <c r="AD90">
+        <v>114.28</v>
+      </c>
+      <c r="AK90">
+        <v>7595090381</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO90" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="91" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B91" s="2">
+        <v>0.51687499999999997</v>
+      </c>
+      <c r="C91" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" t="s">
+        <v>44</v>
+      </c>
+      <c r="H91">
+        <v>5</v>
+      </c>
+      <c r="I91">
+        <v>-0.45</v>
+      </c>
+      <c r="J91">
+        <v>4.55</v>
+      </c>
+      <c r="K91" t="s">
+        <v>137</v>
+      </c>
+      <c r="L91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M91" t="s">
+        <v>264</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="s">
+        <v>53</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB91">
+        <v>1</v>
+      </c>
+      <c r="AD91">
+        <v>118.83</v>
+      </c>
+      <c r="AK91">
+        <v>7882681975</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B92" s="2">
+        <v>4.6226851851851852E-2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>247</v>
+      </c>
+      <c r="E92" t="s">
+        <v>42</v>
+      </c>
+      <c r="F92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" t="s">
+        <v>44</v>
+      </c>
+      <c r="H92">
+        <v>-68.83</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>-68.83</v>
+      </c>
+      <c r="K92" t="s">
+        <v>45</v>
+      </c>
+      <c r="M92" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD92">
+        <v>50</v>
+      </c>
+      <c r="AO92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B93" s="2">
+        <v>0.51872685185185186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" t="s">
+        <v>177</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" t="s">
+        <v>44</v>
+      </c>
+      <c r="H93">
+        <v>5</v>
+      </c>
+      <c r="I93">
+        <v>-0.54</v>
+      </c>
+      <c r="J93">
+        <v>4.46</v>
+      </c>
+      <c r="K93" t="s">
+        <v>178</v>
+      </c>
+      <c r="L93" t="s">
+        <v>45</v>
+      </c>
+      <c r="M93" t="s">
+        <v>266</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="s">
+        <v>53</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB93">
+        <v>1</v>
+      </c>
+      <c r="AD93">
+        <v>54.46</v>
+      </c>
+      <c r="AK93">
+        <v>8596195685</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO93" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="94" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B94" s="2">
+        <v>0.46592592592592591</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" t="s">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
+      </c>
+      <c r="I94">
+        <v>-0.45</v>
+      </c>
+      <c r="J94">
+        <v>4.55</v>
+      </c>
+      <c r="K94" t="s">
+        <v>50</v>
+      </c>
+      <c r="L94" t="s">
+        <v>45</v>
+      </c>
+      <c r="M94" t="s">
+        <v>267</v>
+      </c>
+      <c r="O94" t="s">
+        <v>52</v>
+      </c>
+      <c r="P94" t="s">
+        <v>53</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="T94">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB94">
+        <v>1</v>
+      </c>
+      <c r="AD94">
+        <v>59.01</v>
+      </c>
+      <c r="AK94">
+        <v>7941867088</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO94" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B95" s="2">
+        <v>0.52226851851851852</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" t="s">
+        <v>56</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" t="s">
+        <v>44</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>-0.45</v>
+      </c>
+      <c r="J95">
+        <v>4.55</v>
+      </c>
+      <c r="K95" t="s">
+        <v>57</v>
+      </c>
+      <c r="L95" t="s">
+        <v>45</v>
+      </c>
+      <c r="M95" t="s">
+        <v>268</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="s">
+        <v>53</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="T95">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB95">
+        <v>1</v>
+      </c>
+      <c r="AD95">
+        <v>63.56</v>
+      </c>
+      <c r="AK95">
+        <v>7860200205</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO95" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B96" s="2">
+        <v>0.52260416666666665</v>
+      </c>
+      <c r="C96" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" t="s">
+        <v>60</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
+        <v>-0.39</v>
+      </c>
+      <c r="J96">
+        <v>2.61</v>
+      </c>
+      <c r="K96" t="s">
+        <v>61</v>
+      </c>
+      <c r="L96" t="s">
+        <v>45</v>
+      </c>
+      <c r="M96" t="s">
+        <v>269</v>
+      </c>
+      <c r="O96" t="s">
+        <v>52</v>
+      </c>
+      <c r="P96" t="s">
+        <v>63</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AD96">
+        <v>66.17</v>
+      </c>
+      <c r="AK96">
+        <v>7305779062</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO96" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B97" s="2">
+        <v>0.48230324074074077</v>
+      </c>
+      <c r="C97" t="s">
+        <v>247</v>
+      </c>
+      <c r="D97" t="s">
+        <v>196</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97">
+        <v>3</v>
+      </c>
+      <c r="I97">
+        <v>-0.39</v>
+      </c>
+      <c r="J97">
+        <v>2.61</v>
+      </c>
+      <c r="K97" t="s">
+        <v>197</v>
+      </c>
+      <c r="L97" t="s">
+        <v>45</v>
+      </c>
+      <c r="M97" t="s">
+        <v>270</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="s">
+        <v>63</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+      <c r="T97">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB97">
+        <v>1</v>
+      </c>
+      <c r="AD97">
+        <v>68.78</v>
+      </c>
+      <c r="AK97">
+        <v>7720716258</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B98" s="2">
+        <v>0.4977199074074074</v>
+      </c>
+      <c r="C98" t="s">
+        <v>247</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" t="s">
+        <v>44</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>-0.45</v>
+      </c>
+      <c r="J98">
+        <v>4.55</v>
+      </c>
+      <c r="K98" t="s">
+        <v>70</v>
+      </c>
+      <c r="L98" t="s">
+        <v>45</v>
+      </c>
+      <c r="M98" t="s">
+        <v>271</v>
+      </c>
+      <c r="O98" t="s">
+        <v>52</v>
+      </c>
+      <c r="P98" t="s">
+        <v>53</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="T98">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB98">
+        <v>1</v>
+      </c>
+      <c r="AD98">
+        <v>73.33</v>
+      </c>
+      <c r="AK98">
+        <v>7552258460</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO98" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B99" s="2">
+        <v>0.5118287037037037</v>
+      </c>
+      <c r="C99" t="s">
+        <v>247</v>
+      </c>
+      <c r="D99" t="s">
+        <v>65</v>
+      </c>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" t="s">
+        <v>44</v>
+      </c>
+      <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>-0.45</v>
+      </c>
+      <c r="J99">
+        <v>4.55</v>
+      </c>
+      <c r="K99" t="s">
+        <v>66</v>
+      </c>
+      <c r="L99" t="s">
+        <v>45</v>
+      </c>
+      <c r="M99" t="s">
+        <v>272</v>
+      </c>
+      <c r="O99" t="s">
+        <v>52</v>
+      </c>
+      <c r="P99" t="s">
+        <v>53</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB99">
+        <v>1</v>
+      </c>
+      <c r="AD99">
+        <v>77.88</v>
+      </c>
+      <c r="AK99">
+        <v>7785953727</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B100" s="2">
+        <v>0.51754629629629634</v>
+      </c>
+      <c r="C100" t="s">
+        <v>247</v>
+      </c>
+      <c r="D100" t="s">
+        <v>78</v>
+      </c>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" t="s">
+        <v>44</v>
+      </c>
+      <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>-0.45</v>
+      </c>
+      <c r="J100">
+        <v>4.55</v>
+      </c>
+      <c r="K100" t="s">
+        <v>79</v>
+      </c>
+      <c r="L100" t="s">
+        <v>45</v>
+      </c>
+      <c r="M100" t="s">
+        <v>273</v>
+      </c>
+      <c r="O100" t="s">
+        <v>52</v>
+      </c>
+      <c r="P100" t="s">
+        <v>53</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+      <c r="T100">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>82.43</v>
+      </c>
+      <c r="AK100">
+        <v>7813163674</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO100" t="s">
         <v>55</v>
       </c>
     </row>

--- a/PayPal2025.xlsx
+++ b/PayPal2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\Art\art-sauce finance\art-sauce 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9B913C-D4B3-4C52-B87C-1E2DFAB1DFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34442A-49F8-4E38-B5CF-869D67BA8B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0DB5FDDC-0325-4E05-B1D9-AB989EB5013C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="280">
   <si>
     <t>Date</t>
   </si>
@@ -858,6 +858,24 @@
   </si>
   <si>
     <t>3EJ71928JF252451G</t>
+  </si>
+  <si>
+    <t>4KT8448527080382G</t>
+  </si>
+  <si>
+    <t>1EP67679VB2062412</t>
+  </si>
+  <si>
+    <t>3FW11914F3876341B</t>
+  </si>
+  <si>
+    <t>6B449634209186338</t>
+  </si>
+  <si>
+    <t>3RN51102LK993292D</t>
+  </si>
+  <si>
+    <t>9WX624898C804122R</t>
   </si>
 </sst>
 </file>
@@ -1232,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D2D4E6-2F47-4D53-81DD-3D9093D5F52A}">
-  <dimension ref="A1:AO100"/>
+  <dimension ref="A1:AO106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="AD105" sqref="AD105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8395,6 +8413,432 @@
         <v>55</v>
       </c>
     </row>
+    <row r="101" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B101" s="2">
+        <v>0.4704976851851852</v>
+      </c>
+      <c r="C101" t="s">
+        <v>247</v>
+      </c>
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" t="s">
+        <v>44</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
+      </c>
+      <c r="I101">
+        <v>-0.45</v>
+      </c>
+      <c r="J101">
+        <v>4.55</v>
+      </c>
+      <c r="K101" t="s">
+        <v>99</v>
+      </c>
+      <c r="L101" t="s">
+        <v>45</v>
+      </c>
+      <c r="M101" t="s">
+        <v>274</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="s">
+        <v>53</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+      <c r="T101">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB101">
+        <v>1</v>
+      </c>
+      <c r="AD101">
+        <v>86.98</v>
+      </c>
+      <c r="AK101">
+        <v>7787992050</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO101" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B102" s="2">
+        <v>0.49987268518518518</v>
+      </c>
+      <c r="C102" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" t="s">
+        <v>94</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" t="s">
+        <v>44</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
+      </c>
+      <c r="I102">
+        <v>-0.45</v>
+      </c>
+      <c r="J102">
+        <v>4.55</v>
+      </c>
+      <c r="K102" t="s">
+        <v>95</v>
+      </c>
+      <c r="L102" t="s">
+        <v>45</v>
+      </c>
+      <c r="M102" t="s">
+        <v>275</v>
+      </c>
+      <c r="O102" t="s">
+        <v>52</v>
+      </c>
+      <c r="P102" t="s">
+        <v>53</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+      <c r="T102">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB102">
+        <v>1</v>
+      </c>
+      <c r="AD102">
+        <v>91.53</v>
+      </c>
+      <c r="AK102">
+        <v>7889255488</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO102" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B103" s="2">
+        <v>0.49024305555555553</v>
+      </c>
+      <c r="C103" t="s">
+        <v>247</v>
+      </c>
+      <c r="D103" t="s">
+        <v>120</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" t="s">
+        <v>44</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>-0.45</v>
+      </c>
+      <c r="J103">
+        <v>4.55</v>
+      </c>
+      <c r="K103" t="s">
+        <v>121</v>
+      </c>
+      <c r="L103" t="s">
+        <v>45</v>
+      </c>
+      <c r="M103" t="s">
+        <v>276</v>
+      </c>
+      <c r="O103" t="s">
+        <v>52</v>
+      </c>
+      <c r="P103" t="s">
+        <v>53</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB103">
+        <v>1</v>
+      </c>
+      <c r="AD103">
+        <v>96.08</v>
+      </c>
+      <c r="AK103">
+        <v>7932507659</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B104" s="2">
+        <v>0.48303240740740738</v>
+      </c>
+      <c r="C104" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" t="s">
+        <v>44</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
+      </c>
+      <c r="I104">
+        <v>-0.45</v>
+      </c>
+      <c r="J104">
+        <v>4.55</v>
+      </c>
+      <c r="K104" t="s">
+        <v>125</v>
+      </c>
+      <c r="L104" t="s">
+        <v>45</v>
+      </c>
+      <c r="M104" t="s">
+        <v>277</v>
+      </c>
+      <c r="O104" t="s">
+        <v>52</v>
+      </c>
+      <c r="P104" t="s">
+        <v>53</v>
+      </c>
+      <c r="R104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB104">
+        <v>1</v>
+      </c>
+      <c r="AD104">
+        <v>100.63</v>
+      </c>
+      <c r="AK104">
+        <v>7811847868</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO104" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B105" s="2">
+        <v>0.48751157407407408</v>
+      </c>
+      <c r="C105" t="s">
+        <v>247</v>
+      </c>
+      <c r="D105" t="s">
+        <v>144</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" t="s">
+        <v>44</v>
+      </c>
+      <c r="H105">
+        <v>5</v>
+      </c>
+      <c r="I105">
+        <v>-0.45</v>
+      </c>
+      <c r="J105">
+        <v>4.55</v>
+      </c>
+      <c r="K105" t="s">
+        <v>145</v>
+      </c>
+      <c r="L105" t="s">
+        <v>45</v>
+      </c>
+      <c r="M105" t="s">
+        <v>278</v>
+      </c>
+      <c r="O105" t="s">
+        <v>52</v>
+      </c>
+      <c r="P105" t="s">
+        <v>53</v>
+      </c>
+      <c r="R105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB105">
+        <v>1</v>
+      </c>
+      <c r="AD105">
+        <v>105.18</v>
+      </c>
+      <c r="AK105">
+        <v>7595090381</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B106" s="2">
+        <v>0.51997685185185183</v>
+      </c>
+      <c r="C106" t="s">
+        <v>247</v>
+      </c>
+      <c r="D106" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106">
+        <v>5</v>
+      </c>
+      <c r="I106">
+        <v>-0.45</v>
+      </c>
+      <c r="J106">
+        <v>4.55</v>
+      </c>
+      <c r="K106" t="s">
+        <v>137</v>
+      </c>
+      <c r="L106" t="s">
+        <v>45</v>
+      </c>
+      <c r="M106" t="s">
+        <v>279</v>
+      </c>
+      <c r="O106" t="s">
+        <v>52</v>
+      </c>
+      <c r="P106" t="s">
+        <v>53</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>109.73</v>
+      </c>
+      <c r="AK106">
+        <v>7882681975</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO106" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PayPal2025.xlsx
+++ b/PayPal2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnbar\Dropbox\Art\art-sauce finance\art-sauce 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A34442A-49F8-4E38-B5CF-869D67BA8B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D500790-0E02-41A3-AB27-B59074466566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{0DB5FDDC-0325-4E05-B1D9-AB989EB5013C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="294">
   <si>
     <t>Date</t>
   </si>
@@ -876,6 +876,48 @@
   </si>
   <si>
     <t>9WX624898C804122R</t>
+  </si>
+  <si>
+    <t>6W115443TP444435H</t>
+  </si>
+  <si>
+    <t>76750501BA660360L</t>
+  </si>
+  <si>
+    <t>84G710129W1022355</t>
+  </si>
+  <si>
+    <t>7SH90596975884246</t>
+  </si>
+  <si>
+    <t>6YP97506A10456315</t>
+  </si>
+  <si>
+    <t>9TY02840WX4817637</t>
+  </si>
+  <si>
+    <t>05591408R4180782G</t>
+  </si>
+  <si>
+    <t>45M85820UJ636310A</t>
+  </si>
+  <si>
+    <t>6J923465FA971223W</t>
+  </si>
+  <si>
+    <t>7AR246640X9341123</t>
+  </si>
+  <si>
+    <t>5E616836E3030974Y</t>
+  </si>
+  <si>
+    <t>46A44009RA417873C</t>
+  </si>
+  <si>
+    <t>4WE17185T32938052</t>
+  </si>
+  <si>
+    <t>9B250082T7005702D</t>
   </si>
 </sst>
 </file>
@@ -1250,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D2D4E6-2F47-4D53-81DD-3D9093D5F52A}">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="AD105" sqref="AD105"/>
+    <sheetView tabSelected="1" topLeftCell="Y94" workbookViewId="0">
+      <selection activeCell="AR120" sqref="AR120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8839,6 +8881,970 @@
         <v>55</v>
       </c>
     </row>
+    <row r="107" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B107" s="2">
+        <v>4.6006944444444448E-2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" t="s">
+        <v>42</v>
+      </c>
+      <c r="F107" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" t="s">
+        <v>44</v>
+      </c>
+      <c r="H107">
+        <v>-59.73</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>-59.73</v>
+      </c>
+      <c r="K107" t="s">
+        <v>45</v>
+      </c>
+      <c r="M107" t="s">
+        <v>280</v>
+      </c>
+      <c r="AD107">
+        <v>50</v>
+      </c>
+      <c r="AO107" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B108" s="2">
+        <v>0.47274305555555557</v>
+      </c>
+      <c r="C108" t="s">
+        <v>247</v>
+      </c>
+      <c r="D108" t="s">
+        <v>177</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" t="s">
+        <v>44</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>-0.54</v>
+      </c>
+      <c r="J108">
+        <v>4.46</v>
+      </c>
+      <c r="K108" t="s">
+        <v>178</v>
+      </c>
+      <c r="L108" t="s">
+        <v>45</v>
+      </c>
+      <c r="M108" t="s">
+        <v>281</v>
+      </c>
+      <c r="O108" t="s">
+        <v>52</v>
+      </c>
+      <c r="P108" t="s">
+        <v>53</v>
+      </c>
+      <c r="R108">
+        <v>0</v>
+      </c>
+      <c r="T108">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB108">
+        <v>1</v>
+      </c>
+      <c r="AD108">
+        <v>54.46</v>
+      </c>
+      <c r="AK108">
+        <v>8596195685</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO108" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="109" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B109" s="2">
+        <v>0.46020833333333333</v>
+      </c>
+      <c r="C109" t="s">
+        <v>247</v>
+      </c>
+      <c r="D109" t="s">
+        <v>48</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s">
+        <v>44</v>
+      </c>
+      <c r="H109">
+        <v>5</v>
+      </c>
+      <c r="I109">
+        <v>-0.45</v>
+      </c>
+      <c r="J109">
+        <v>4.55</v>
+      </c>
+      <c r="K109" t="s">
+        <v>50</v>
+      </c>
+      <c r="L109" t="s">
+        <v>45</v>
+      </c>
+      <c r="M109" t="s">
+        <v>282</v>
+      </c>
+      <c r="O109" t="s">
+        <v>52</v>
+      </c>
+      <c r="P109" t="s">
+        <v>53</v>
+      </c>
+      <c r="R109">
+        <v>0</v>
+      </c>
+      <c r="T109">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB109">
+        <v>1</v>
+      </c>
+      <c r="AD109">
+        <v>59.01</v>
+      </c>
+      <c r="AK109">
+        <v>7941867088</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO109" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="110" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B110" s="2">
+        <v>0.46743055555555557</v>
+      </c>
+      <c r="C110" t="s">
+        <v>247</v>
+      </c>
+      <c r="D110" t="s">
+        <v>56</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s">
+        <v>44</v>
+      </c>
+      <c r="H110">
+        <v>5</v>
+      </c>
+      <c r="I110">
+        <v>-0.45</v>
+      </c>
+      <c r="J110">
+        <v>4.55</v>
+      </c>
+      <c r="K110" t="s">
+        <v>57</v>
+      </c>
+      <c r="L110" t="s">
+        <v>45</v>
+      </c>
+      <c r="M110" t="s">
+        <v>283</v>
+      </c>
+      <c r="O110" t="s">
+        <v>52</v>
+      </c>
+      <c r="P110" t="s">
+        <v>53</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB110">
+        <v>1</v>
+      </c>
+      <c r="AD110">
+        <v>63.56</v>
+      </c>
+      <c r="AK110">
+        <v>7860200205</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B111" s="2">
+        <v>0.48766203703703703</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+      <c r="D111" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s">
+        <v>44</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+      <c r="I111">
+        <v>-0.39</v>
+      </c>
+      <c r="J111">
+        <v>2.61</v>
+      </c>
+      <c r="K111" t="s">
+        <v>61</v>
+      </c>
+      <c r="L111" t="s">
+        <v>45</v>
+      </c>
+      <c r="M111" t="s">
+        <v>284</v>
+      </c>
+      <c r="O111" t="s">
+        <v>52</v>
+      </c>
+      <c r="P111" t="s">
+        <v>63</v>
+      </c>
+      <c r="R111">
+        <v>0</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB111">
+        <v>1</v>
+      </c>
+      <c r="AD111">
+        <v>66.17</v>
+      </c>
+      <c r="AK111">
+        <v>7305779062</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO111" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B112" s="2">
+        <v>0.48297453703703702</v>
+      </c>
+      <c r="C112" t="s">
+        <v>247</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s">
+        <v>44</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+      <c r="I112">
+        <v>-0.45</v>
+      </c>
+      <c r="J112">
+        <v>4.55</v>
+      </c>
+      <c r="K112" t="s">
+        <v>70</v>
+      </c>
+      <c r="L112" t="s">
+        <v>45</v>
+      </c>
+      <c r="M112" t="s">
+        <v>285</v>
+      </c>
+      <c r="O112" t="s">
+        <v>52</v>
+      </c>
+      <c r="P112" t="s">
+        <v>53</v>
+      </c>
+      <c r="R112">
+        <v>0</v>
+      </c>
+      <c r="T112">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB112">
+        <v>1</v>
+      </c>
+      <c r="AD112">
+        <v>70.72</v>
+      </c>
+      <c r="AK112">
+        <v>7552258460</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO112" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="113" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B113" s="2">
+        <v>0.49618055555555557</v>
+      </c>
+      <c r="C113" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+      <c r="F113" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+      <c r="I113">
+        <v>-0.39</v>
+      </c>
+      <c r="J113">
+        <v>2.61</v>
+      </c>
+      <c r="K113" t="s">
+        <v>197</v>
+      </c>
+      <c r="L113" t="s">
+        <v>45</v>
+      </c>
+      <c r="M113" t="s">
+        <v>286</v>
+      </c>
+      <c r="O113" t="s">
+        <v>52</v>
+      </c>
+      <c r="P113" t="s">
+        <v>63</v>
+      </c>
+      <c r="R113">
+        <v>0</v>
+      </c>
+      <c r="T113">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB113">
+        <v>1</v>
+      </c>
+      <c r="AD113">
+        <v>73.33</v>
+      </c>
+      <c r="AK113">
+        <v>7720716258</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B114" s="2">
+        <v>0.50940972222222225</v>
+      </c>
+      <c r="C114" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" t="s">
+        <v>65</v>
+      </c>
+      <c r="E114" t="s">
+        <v>49</v>
+      </c>
+      <c r="F114" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" t="s">
+        <v>44</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114">
+        <v>-0.45</v>
+      </c>
+      <c r="J114">
+        <v>4.55</v>
+      </c>
+      <c r="K114" t="s">
+        <v>66</v>
+      </c>
+      <c r="L114" t="s">
+        <v>45</v>
+      </c>
+      <c r="M114" t="s">
+        <v>287</v>
+      </c>
+      <c r="O114" t="s">
+        <v>52</v>
+      </c>
+      <c r="P114" t="s">
+        <v>53</v>
+      </c>
+      <c r="R114">
+        <v>0</v>
+      </c>
+      <c r="T114">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB114">
+        <v>1</v>
+      </c>
+      <c r="AD114">
+        <v>77.88</v>
+      </c>
+      <c r="AK114">
+        <v>7785953727</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
+        <v>45820</v>
+      </c>
+      <c r="B115" s="2">
+        <v>0.47282407407407406</v>
+      </c>
+      <c r="C115" t="s">
+        <v>247</v>
+      </c>
+      <c r="D115" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" t="s">
+        <v>49</v>
+      </c>
+      <c r="F115" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" t="s">
+        <v>44</v>
+      </c>
+      <c r="H115">
+        <v>5</v>
+      </c>
+      <c r="I115">
+        <v>-0.45</v>
+      </c>
+      <c r="J115">
+        <v>4.55</v>
+      </c>
+      <c r="K115" t="s">
+        <v>79</v>
+      </c>
+      <c r="L115" t="s">
+        <v>45</v>
+      </c>
+      <c r="M115" t="s">
+        <v>288</v>
+      </c>
+      <c r="O115" t="s">
+        <v>52</v>
+      </c>
+      <c r="P115" t="s">
+        <v>53</v>
+      </c>
+      <c r="R115">
+        <v>0</v>
+      </c>
+      <c r="T115">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB115">
+        <v>1</v>
+      </c>
+      <c r="AD115">
+        <v>82.43</v>
+      </c>
+      <c r="AK115">
+        <v>7813163674</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO115" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="116" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
+        <v>45824</v>
+      </c>
+      <c r="B116" s="2">
+        <v>0.4992476851851852</v>
+      </c>
+      <c r="C116" t="s">
+        <v>247</v>
+      </c>
+      <c r="D116" t="s">
+        <v>98</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+      <c r="F116" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>-0.45</v>
+      </c>
+      <c r="J116">
+        <v>4.55</v>
+      </c>
+      <c r="K116" t="s">
+        <v>99</v>
+      </c>
+      <c r="L116" t="s">
+        <v>45</v>
+      </c>
+      <c r="M116" t="s">
+        <v>289</v>
+      </c>
+      <c r="O116" t="s">
+        <v>52</v>
+      </c>
+      <c r="P116" t="s">
+        <v>53</v>
+      </c>
+      <c r="R116">
+        <v>0</v>
+      </c>
+      <c r="T116">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB116">
+        <v>1</v>
+      </c>
+      <c r="AD116">
+        <v>86.98</v>
+      </c>
+      <c r="AK116">
+        <v>7787992050</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO116" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="117" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
+        <v>45826</v>
+      </c>
+      <c r="B117" s="2">
+        <v>0.47542824074074075</v>
+      </c>
+      <c r="C117" t="s">
+        <v>247</v>
+      </c>
+      <c r="D117" t="s">
+        <v>120</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117">
+        <v>5</v>
+      </c>
+      <c r="I117">
+        <v>-0.45</v>
+      </c>
+      <c r="J117">
+        <v>4.55</v>
+      </c>
+      <c r="K117" t="s">
+        <v>121</v>
+      </c>
+      <c r="L117" t="s">
+        <v>45</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O117" t="s">
+        <v>52</v>
+      </c>
+      <c r="P117" t="s">
+        <v>53</v>
+      </c>
+      <c r="R117">
+        <v>0</v>
+      </c>
+      <c r="T117">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB117">
+        <v>1</v>
+      </c>
+      <c r="AD117">
+        <v>91.53</v>
+      </c>
+      <c r="AK117">
+        <v>7932507659</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
+        <v>45828</v>
+      </c>
+      <c r="B118" s="2">
+        <v>0.4695138888888889</v>
+      </c>
+      <c r="C118" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" t="s">
+        <v>124</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+      <c r="F118" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>-0.45</v>
+      </c>
+      <c r="J118">
+        <v>4.55</v>
+      </c>
+      <c r="K118" t="s">
+        <v>125</v>
+      </c>
+      <c r="L118" t="s">
+        <v>45</v>
+      </c>
+      <c r="M118" t="s">
+        <v>291</v>
+      </c>
+      <c r="O118" t="s">
+        <v>52</v>
+      </c>
+      <c r="P118" t="s">
+        <v>53</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB118">
+        <v>1</v>
+      </c>
+      <c r="AD118">
+        <v>96.08</v>
+      </c>
+      <c r="AK118">
+        <v>7811847868</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO118" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="119" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B119" s="2">
+        <v>0.46149305555555553</v>
+      </c>
+      <c r="C119" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+      <c r="F119" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119">
+        <v>5</v>
+      </c>
+      <c r="I119">
+        <v>-0.45</v>
+      </c>
+      <c r="J119">
+        <v>4.55</v>
+      </c>
+      <c r="K119" t="s">
+        <v>145</v>
+      </c>
+      <c r="L119" t="s">
+        <v>45</v>
+      </c>
+      <c r="M119" t="s">
+        <v>292</v>
+      </c>
+      <c r="O119" t="s">
+        <v>52</v>
+      </c>
+      <c r="P119" t="s">
+        <v>53</v>
+      </c>
+      <c r="R119">
+        <v>0</v>
+      </c>
+      <c r="T119">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB119">
+        <v>1</v>
+      </c>
+      <c r="AD119">
+        <v>100.63</v>
+      </c>
+      <c r="AK119">
+        <v>7595090381</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO119" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="1:41" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
+        <v>45833</v>
+      </c>
+      <c r="B120" s="2">
+        <v>0.46636574074074072</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" t="s">
+        <v>136</v>
+      </c>
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+      <c r="F120" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" t="s">
+        <v>44</v>
+      </c>
+      <c r="H120">
+        <v>5</v>
+      </c>
+      <c r="I120">
+        <v>-0.45</v>
+      </c>
+      <c r="J120">
+        <v>4.55</v>
+      </c>
+      <c r="K120" t="s">
+        <v>137</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="M120" t="s">
+        <v>293</v>
+      </c>
+      <c r="O120" t="s">
+        <v>52</v>
+      </c>
+      <c r="P120" t="s">
+        <v>53</v>
+      </c>
+      <c r="R120">
+        <v>0</v>
+      </c>
+      <c r="T120">
+        <v>0</v>
+      </c>
+      <c r="Y120" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB120">
+        <v>1</v>
+      </c>
+      <c r="AD120">
+        <v>105.18</v>
+      </c>
+      <c r="AK120">
+        <v>7882681975</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO120" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
